--- a/app/backend/sentiment_data/73.xlsx
+++ b/app/backend/sentiment_data/73.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\folder\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3511A8AC-4BA7-465A-9F33-EE9E8AC796E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCB7EB7-DD8B-4149-83E3-69E1B9D58449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{E0EFBC65-2B74-4FF6-8BDF-8758ABE6AB3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>My skin loves it! My skin has has a great improvement since I started using the oil cleanser, this toner and the bean essence. :)</t>
   </si>
@@ -60,13 +60,112 @@
   </si>
   <si>
     <t>I love this toner so much and I've heard so many good reviews about it so i had to try and in my opinion it makes your skin feel very fresh and smooth, it smells a little like lotion. I definitely recommend this product since its affordable!</t>
+  </si>
+  <si>
+    <t>Leaves skin with a healthy glow, soft and hydrated</t>
+  </si>
+  <si>
+    <t>Great product, I am on my second bottle and it's awesome. Super hydrating, non-sticky.</t>
+  </si>
+  <si>
+    <t>I was told about this but wasn't convinced it would work. I can't believe what a difference it has made in my skin. My skin has stopped flaking and looks more even. The one thing to remember is to put it on damp skin. I am not the most disciplined person, so I only use it every few days and yet my skin is still soft.</t>
+  </si>
+  <si>
+    <t>I've bought 2 of these Cosrx Snail Mucin Power Essence bottles and they are amazing for dry, combination, sensitive skin. This will definitely be a regular product purchase for me.</t>
+  </si>
+  <si>
+    <t>Loved it!</t>
+  </si>
+  <si>
+    <t>It's good but not worth for the hype it has on social media.</t>
+  </si>
+  <si>
+    <t>I’m happy with this product</t>
+  </si>
+  <si>
+    <t>Feels a lot like HA, it’s good to pair with your moisturizer and takes the products in.</t>
+  </si>
+  <si>
+    <t>So far so good</t>
+  </si>
+  <si>
+    <t>Must have</t>
+  </si>
+  <si>
+    <t>I loved it this is my 3rd bottle genuinely it makes my skin shiner and smoother</t>
+  </si>
+  <si>
+    <t>Really good for hydration..</t>
+  </si>
+  <si>
+    <t>Amazing product it makes skin fresh and radiant immediately</t>
+  </si>
+  <si>
+    <t>Très bien emballé bon produit pas de fini collant</t>
+  </si>
+  <si>
+    <t>I don’t usually write reviews but this product deserves one. I’ve never bought any skincare product that’s worked this well and this quickly before. i’ve only been using it twice a day for 4 days and oml MY SKIN IS SO SMOOTH! Even my friends cant stop caressing my face (ik probably not a good idea to let anyone touch my face). But i still cannot believe how smooth it is as my face used to he textured like you could feel the bumps and some dry skin. And i used to have a couple of hyperpigmentation from acne. it wasnt a lot but you can see it’s there. But now it’s barely there! My skin is practically clear now! It hasnt been this clear since I was like 12 lol. Also, for someone who gets 4 hours of sleep each night and has dark circles bc of it, the snail mucin actually faded it (not as much but it used to be much worse). Overall my skin looks plumper and younger somehow. I dont have wrinkles to begin with but my skin looks just looks youthful right now. Makeup goes on so smoothly, I don’t even need to put on that much makeup anymore because this gave me almost a beauty filter lol. I just cannot comprehend how this product works so good and i haven’t even been using it long! The bottle is still full. I will update though if anything changes but i highly doubt that it feels like it just made my skin so much healthier.</t>
+  </si>
+  <si>
+    <t>Feel my skin more smoother after applying a few times. However, i’m not sure if I would’ve had the same result if i used the snail mucin alone (with my regular moisturizers ofc) because I also started using the cosrx aha/bha toner the same time i started using the snail mucin. So, it may have had an effect as well</t>
+  </si>
+  <si>
+    <t>I love this</t>
+  </si>
+  <si>
+    <t>It’s working and I bought it twice but won’t purchase again just because I don’t see a big result but it sure does hydrate the skin.</t>
+  </si>
+  <si>
+    <t>It hydrates well</t>
+  </si>
+  <si>
+    <t>Okay so this is the second time I've purchased this product. I've used a whole bottle and then afterwards didn’t use it for a while to see if there was any difference. I can definitely tell you there was! I don’t quite know how to explain it but this stuff makes your skin look so plump and hydrated it’s crazy. Also, when I was using it I was kind of surprised at just how fast any pimples I did have actually cleared up and healed. I kid you not this stuff helps heal acne and redness. Snails have this stuff to help them with their healing and I can say that for me it does the same thing. I love it!! When I ran out and wasn’t using it my pimples took a lot longer to heal and that was the only change to my skin care regime so I’m a believer! If you have dry skin, acne, or redness this stuff is a must have. Also, I have sensitive skin and this stuff gave me zero reaction. It has no scent and goes on amazing. Definitely recommend</t>
+  </si>
+  <si>
+    <t>I liked the texture of it at first and I had read the reviews before and it was a hit or miss so I decided to use it and on the first day I woke up and my eyes were puffy and swollen then I started feeling tiny bumps but I assumed it was from the eczema on day 2 I woke up with many bumps like fungal acne bumps and this product made my eczema worse when I didn't have it for a while before using the product I don’t recommend at all but also everyone’s skin reacts differently so maybe it might work for you.</t>
+  </si>
+  <si>
+    <t>Been using this daily for over a month, so I feel I can give a fair review now. First, if you're worried about the whole snail thing, don't - there's no offensive smell or strange texture; it's just a bit sticky when you first apply it. Dries very quickly, so smooth/pat it in fast. To the point: didn't aggravate my combo oily, acne-prone, slightly sensitive skin. I also use BHAs and AHAs, one of which is prescription-strength retin-A at .25%, and haven't had any problems. I mainly got this to reduce redness (pretty apparent when you're as ghostly as I am) and help with a bit of flaking due to the AHA use, and while it seems to have reduced redness slightly, it's nothing to write home about. Overall though? Skin feels smoother, nicely moisturized, and no oilier than usual. Worth the $17.98 CAN I paid for it, certainly. STRONGLY advise against ordering from Rude Cosmetics, as they will give you the run around, may send expired products, overcharge by a ridiculous amount, and don't even offer Amazon Prime. I ordered this from Wishtrend since they do offer AP, and had no issues with them so far. YouRiShop is fine too. Generally, order k-products from a Korean-based k-product seller.</t>
+  </si>
+  <si>
+    <t>Reminder: since this is an essence (and it has sodium hyaluronate = hyaluronic acid), use it after your toner, but before everything else, and it'll help draw in whatever moisture (i.e., water) you place on top of it (or even moisture in the air) further into your skin. If you don't, you may find your skin feels a bit dry, as the sodium hyaluronate will actually draw moisture from your skin (hyaluronic acid can attract water both ways). When I use retin-A, I wait the 30 minutes after applying it to give it time to work on its own as instructed, then carefully pat this in; otherwise, it can cause a bit of pilling. Edit: Rude Cosmetics has since re-branded themselves as TimeFree Beauty, probably because the name suited their "service" far too well...</t>
+  </si>
+  <si>
+    <t>Honestly, I was a little concerned about my skin's aversion to having even soap on it and using snails instead. THIS IS THE BEST THING I’VE EVER USED!! I have crazy dry, sensitive, and psoriasis/eczema skin. This product doesn't bother my skin and genuinely has improved the soft and moist quality of my skin in a month! Do I use other products with this? HECK YES. Are they all snails? No. I use a different toner and cleansing oil. Everything else for eyes and face is from this company, and I’ll never look back. Once you get past the gooey consistency of the formula (don’t forget it’s snail essence) and put it on your face for the first time, you will never go back either!! It absorbs beautifully and evenly to your face without leaving any residue or stickiness behind. 10 on 10 would recommend.</t>
+  </si>
+  <si>
+    <t>I’m on my second bottle of this essence and it is fantastic! It’s hydrating, light, and absorbs quickly. My skin has never looked better. I use it in the morning and night, and it has definitely helped with overall skin texture and moisture levels. I also use it after applying any acids or retinols, and it doesn’t cause pilling. The only downside is that the bottle isn’t very big, but a little goes a long way.</t>
+  </si>
+  <si>
+    <t>I've been using this for about a month now and I'm loving it! My skin feels so much smoother and hydrated. I use it after my toner and before my serum. It's very lightweight and absorbs quickly without leaving any residue. I also appreciate that it doesn’t have a strong fragrance and hasn’t caused any breakouts. I’m definitely repurchasing this once I run out.</t>
+  </si>
+  <si>
+    <t>This essence is amazing. My skin feels plump and hydrated after using it. It has a light, slightly sticky texture that absorbs quickly into the skin. I’ve noticed a significant improvement in my skin’s moisture level and texture. I use it twice a day after cleansing and before my moisturizer. It has a very subtle, pleasant scent and doesn’t irritate my sensitive skin. Highly recommend!</t>
+  </si>
+  <si>
+    <t>I absolutely love this essence. It’s become a staple in my skincare routine. My skin feels so much softer and more hydrated. It has a nice, lightweight texture that layers well with other products. I use it every morning and night, and it doesn’t interfere with any of my other products. The only thing is that it’s a bit pricey, but it’s worth it for the results.</t>
+  </si>
+  <si>
+    <t>I’ve been using this for a few weeks and I’m impressed. It makes my skin feel hydrated and smooth without being greasy. The texture is light and it absorbs quickly. I haven’t had any issues with breakouts or irritation. I use it after my toner and before my moisturizer. The only downside is that the bottle is small, but it seems to last a while. I’ll definitely be buying this again.</t>
+  </si>
+  <si>
+    <t>This essence is a game changer. It makes my skin feel so much more hydrated and plump. I use it twice daily after cleansing and before applying my serum. It has a lightweight, slightly sticky texture that absorbs quickly. I haven’t noticed any negative reactions or breakouts. The scent is minimal and pleasant. I’ll definitely continue to use this and repurchase it when I run out.</t>
+  </si>
+  <si>
+    <t>I’ve been using this essence for a month, and it’s made a noticeable difference in my skin’s texture. It’s smoother and more radiant. The essence has a light, watery consistency that doesn’t feel heavy or greasy. It layers well with my other skincare products. I’m happy with the results so far, but the price is a bit high for my budget. Overall, I’m satisfied and will likely repurchase.</t>
+  </si>
+  <si>
+    <t>This is a great essence for hydration. It has a nice, light texture that absorbs quickly into the skin. I’ve noticed my skin feels softer and looks more luminous. I’ve had no issues with irritation or breakouts. The packaging is convenient, and the pump dispenses the right amount of product. My only complaint is that the essence doesn’t seem to last very long, so I’m constantly repurchasing.</t>
+  </si>
+  <si>
+    <t>I’m really pleased with this essence. It’s been a great addition to my skincare routine. The texture is light and it absorbs quickly, leaving my skin feeling refreshed. I’ve noticed a decrease in dryness and my skin looks more even. The scent is subtle and not overpowering. The only downside is the price, but the quality makes it worth it. I’ll keep using it.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,10 +174,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0F1111"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,11 +208,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,55 +556,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFED7AE-352E-4075-B10E-065F9B03FE6C}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="203.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="203.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
